--- a/data.xlsx
+++ b/data.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\DOTA-Group2-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5807E1FA-D0C9-493C-9176-23FCF7E0F29E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3EC200-A2BF-4587-881B-C867A6B035EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="18720" windowHeight="11949" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RQ1" sheetId="2" r:id="rId1"/>
     <sheet name="RQ2" sheetId="1" r:id="rId2"/>
+    <sheet name="RQ3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>WAVS</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +69,40 @@
   </si>
   <si>
     <t>Total</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RXSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SXSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>求和</t>
+  </si>
+  <si>
+    <t>平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>求和</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -120,14 +155,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -545,11 +601,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'RQ2'!$A$2</c:f>
+              <c:f>'RQ2'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OWASP ZAP</c:v>
+                  <c:v>high</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -566,41 +622,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'RQ2'!$B$1:$E$1</c:f>
+              <c:f>'RQ2'!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>high</c:v>
+                  <c:v>OWASP ZAP</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>medium</c:v>
+                  <c:v>Wapiti</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>low</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>info</c:v>
+                  <c:v>Vega</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RQ2'!$B$2:$E$2</c:f>
+              <c:f>'RQ2'!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -616,11 +666,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'RQ2'!$A$3</c:f>
+              <c:f>'RQ2'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Wapiti</c:v>
+                  <c:v>medium</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -637,41 +687,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'RQ2'!$B$1:$E$1</c:f>
+              <c:f>'RQ2'!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>high</c:v>
+                  <c:v>OWASP ZAP</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>medium</c:v>
+                  <c:v>Wapiti</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>low</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>info</c:v>
+                  <c:v>Vega</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RQ2'!$B$3:$E$3</c:f>
+              <c:f>'RQ2'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>96</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -687,11 +731,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'RQ2'!$A$4</c:f>
+              <c:f>'RQ2'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Vega</c:v>
+                  <c:v>low</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -708,41 +752,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'RQ2'!$B$1:$E$1</c:f>
+              <c:f>'RQ2'!$A$2:$A$4</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>high</c:v>
+                  <c:v>OWASP ZAP</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>medium</c:v>
+                  <c:v>Wapiti</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>low</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>info</c:v>
+                  <c:v>Vega</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'RQ2'!$B$4:$E$4</c:f>
+              <c:f>'RQ2'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -750,6 +788,71 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-81F4-4A08-82E6-036F8B4E47C0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RQ2'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>info</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RQ2'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>OWASP ZAP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Wapiti</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vega</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RQ2'!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09CF-45CF-AC22-A299A08D0E89}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -949,6 +1052,474 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Detected Common Vulnerability</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RQ3'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SQLI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RQ3'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>OWASP ZAP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Wapiti</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vega</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RQ3'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2A92-42DC-B24B-7C2435EC8A0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RQ3'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SXSS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RQ3'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>OWASP ZAP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Wapiti</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vega</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RQ3'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2A92-42DC-B24B-7C2435EC8A0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RQ3'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RXSS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'RQ3'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>OWASP ZAP</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Wapiti</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Vega</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'RQ3'!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2A92-42DC-B24B-7C2435EC8A0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="308551864"/>
+        <c:axId val="308552824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="308551864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="308552824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="308552824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="308551864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr b="1" i="0" baseline="0"/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1029,6 +1600,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1533,6 +2144,509 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2117,19 +3231,60 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>440870</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>84365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>424542</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7D71464-A5D0-9101-6190-26FF934B9132}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12F7635E-D8C1-4A5D-B05A-11E8CD65C3A9}" name="表1_3" displayName="表1_3" ref="A1:B4" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{12F7635E-D8C1-4A5D-B05A-11E8CD65C3A9}" name="表1_3" displayName="表1_3" ref="A1:B4" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="A1:B4" xr:uid="{12F7635E-D8C1-4A5D-B05A-11E8CD65C3A9}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{EFA8AE90-49D4-4146-9022-C29ABD9C6790}" name="WAVS"/>
-    <tableColumn id="6" xr3:uid="{6CB03C0B-6723-48A0-9372-F72638598A84}" name="Total" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{6CB03C0B-6723-48A0-9372-F72638598A84}" name="Total" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EE6CD63-B578-4018-B06B-227F6AEED462}" name="表1" displayName="表1" ref="A1:E4" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6EE6CD63-B578-4018-B06B-227F6AEED462}" name="表1" displayName="表1" ref="A1:E4" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A1:E4" xr:uid="{6EE6CD63-B578-4018-B06B-227F6AEED462}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8E2DE6EE-D9AE-448B-B4DD-08D0CF01C65D}" name="WAVS"/>
@@ -2137,6 +3292,19 @@
     <tableColumn id="3" xr3:uid="{8C4245AD-C2DC-4F21-B1D4-39F41DD5E4E3}" name="medium"/>
     <tableColumn id="4" xr3:uid="{194CC26B-C699-40A1-9A2C-AFEFC610D4FB}" name="low"/>
     <tableColumn id="5" xr3:uid="{5D2C8AA2-EF77-486C-8F08-F7144D1237A0}" name="info"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{F338715D-8D13-4B01-ACC0-0DBB34A3A99B}" name="表1_6" displayName="表1_6" ref="A1:D4" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:D4" xr:uid="{F338715D-8D13-4B01-ACC0-0DBB34A3A99B}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{5DEA2BB1-EEB8-4B3E-B3AD-03074BAB4918}" name="WAVS"/>
+    <tableColumn id="2" xr3:uid="{13DF52DB-44F4-46AB-852F-658B9A9CB8C2}" name="SQLI"/>
+    <tableColumn id="3" xr3:uid="{73AB5BB7-FB2A-44B9-9807-D8CB61978AB2}" name="SXSS"/>
+    <tableColumn id="4" xr3:uid="{C5ED5C1D-E820-46F2-B9CF-F481697751AD}" name="RXSS"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2407,7 +3575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F2359E-B47F-40FC-B051-DCA743BAA7FD}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -2463,7 +3631,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -2549,4 +3717,85 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF774A3-9085-4E08-8BFF-9E99EC450CEA}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>